--- a/docs/odh/shr-core-Encounter.xlsx
+++ b/docs/odh/shr-core-Encounter.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="393">
   <si>
     <t>Path</t>
   </si>
@@ -204,7 +204,222 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Encounter.meta.id</t>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Encounter.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Encounter.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will detemine the appropraite transitions that may occur between statuses (and also classes).
+This element is labeled as a modifier because the status contains codes that mark the encounter as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Current state of the encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
@@ -220,714 +435,414 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.meta.extension</t>
+    <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.modifierExtension</t>
   </si>
   <si>
     <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.status</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>The time that the episode was in the specified status</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status.</t>
+  </si>
+  <si>
+    <t>Encounter.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
+    <t>Classification of the encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-ActEncounterCode</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>PV1-2</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory</t>
+  </si>
+  <si>
+    <t>List of past encounter classes</t>
+  </si>
+  <si>
+    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.
+This would be used for a case where an admission starts of as an emergency encounter, then transisions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kindof discharge from emergency to inpatient.</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.class</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.period</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified class</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified class.</t>
+  </si>
+  <si>
+    <t>Encounter.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Specific type of encounter</t>
+  </si>
+  <si>
+    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).</t>
+  </si>
+  <si>
+    <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>PV1-4 / PV1-18</t>
+  </si>
+  <si>
+    <t>Encounter.priority</t>
+  </si>
+  <si>
+    <t>Indicates the urgency of the encounter</t>
+  </si>
+  <si>
+    <t>Indicates the urgency of the encounter.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-ActPriority</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>PV2-25</t>
+  </si>
+  <si>
+    <t>Encounter.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+</t>
+  </si>
+  <si>
+    <t>The patient ro group present at the encounter</t>
+  </si>
+  <si>
+    <t>The patient ro group present at the encounter.</t>
+  </si>
+  <si>
+    <t>While the encounter is always about the patient, the patient may not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ]/role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+</t>
+  </si>
+  <si>
+    <t>Episode(s) of care that this encounter should be recorded against</t>
+  </si>
+  <si>
+    <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care, and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>PV1-54, PV1-53</t>
+  </si>
+  <si>
+    <t>Encounter.incomingReferral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest]]}
+</t>
+  </si>
+  <si>
+    <t>The ReferralRequest that initiated this encounter</t>
+  </si>
+  <si>
+    <t>The referral request this encounter satisfies (incoming referral).</t>
+  </si>
+  <si>
+    <t>.reason.ClinicalDocument</t>
+  </si>
+  <si>
+    <t>Encounter.participant</t>
+  </si>
+  <si>
+    <t>List of participants involved in the encounter</t>
+  </si>
+  <si>
+    <t>The list of people responsible for providing the service.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PFM]</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>Encounter.participant.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.type</t>
+  </si>
+  <si>
+    <t>Role of participant in encounter</t>
+  </si>
+  <si>
+    <t>Role of participant in encounter.</t>
+  </si>
+  <si>
+    <t>The participant type indicates how an individual partitipates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+  </si>
+  <si>
+    <t>.functionCode</t>
+  </si>
+  <si>
+    <t>ROL-3 (or maybe PRT-4)</t>
+  </si>
+  <si>
+    <t>Encounter.participant.period</t>
+  </si>
+  <si>
+    <t>Period of time during the encounter that the participant participated</t>
+  </si>
+  <si>
+    <t>The period of time that the specified participant participated in the encounter. These can overlap or be sub-sets of the overall encounter's period.</t>
+  </si>
+  <si>
+    <t>.time</t>
+  </si>
+  <si>
+    <t>ROL-5, ROL-6 (or maybe PRT-5)</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+</t>
+  </si>
+  <si>
+    <t>Persons involved in the encounter other than the patient</t>
+  </si>
+  <si>
+    <t>Persons involved in the encounter other than the patient.</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>ROL-4</t>
+  </si>
+  <si>
+    <t>Encounter.appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Appointment]]}
+</t>
+  </si>
+  <si>
+    <t>The appointment that scheduled this encounter</t>
+  </si>
+  <si>
+    <t>The appointment that scheduled this encounter.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
+  </si>
+  <si>
+    <t>SCH-1 / SCH-2</t>
+  </si>
+  <si>
+    <t>Encounter.period</t>
+  </si>
+  <si>
+    <t>The start and end time of the encounter</t>
+  </si>
+  <si>
+    <t>The start and end time of the encounter.</t>
+  </si>
+  <si>
+    <t>If not (yet) known, the end of the Period may be omitted.</t>
+  </si>
+  <si>
+    <t>.effectiveTime (low &amp; high)</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>PV1-44, PV1-45</t>
+  </si>
+  <si>
+    <t>Encounter.length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Duration]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Quantity of time the encounter lasted (less time absent)</t>
+  </si>
+  <si>
+    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.</t>
+  </si>
+  <si>
+    <t>May differ from the time the Encounter.period lasted because of leave of absence.</t>
+  </si>
+  <si>
+    <t>.lengthOfStayQuantity</t>
+  </si>
+  <si>
+    <t>(PV1-45 less PV1-44) iff ( (PV1-44 not empty) and (PV1-45 not empty) ); units in minutes</t>
+  </si>
+  <si>
+    <t>Encounter.reason</t>
+  </si>
+  <si>
+    <t>Indication
+Admission diagnosis</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place (code)</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+  </si>
+  <si>
+    <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Reason why the encounter takes place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis</t>
+  </si>
+  <si>
+    <t>The list of diagnosis relevant to this encounter</t>
+  </si>
+  <si>
+    <t>The list of diagnosis relevant to this encounter.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.id</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Encounter.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Encounter.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Encounter.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Encounter.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Encounter.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Encounter.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Encounter.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Encounter.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Encounter.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Encounter.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will detemine the appropraite transitions that may occur between statuses (and also classes).
-This element is labeled as a modifier because the status contains codes that mark the encounter as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Current state of the encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>List of past encounter statuses</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.id</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.status</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified status</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified status.</t>
-  </si>
-  <si>
-    <t>Encounter.class</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +.</t>
-  </si>
-  <si>
-    <t>Classification of the encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-ActEncounterCode</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>PV1-2</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory</t>
-  </si>
-  <si>
-    <t>List of past encounter classes</t>
-  </si>
-  <si>
-    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.
-This would be used for a case where an admission starts of as an emergency encounter, then transisions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kindof discharge from emergency to inpatient.</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.id</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.extension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.class</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.period</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified class</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified class.</t>
-  </si>
-  <si>
-    <t>Encounter.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Specific type of encounter</t>
-  </si>
-  <si>
-    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).</t>
-  </si>
-  <si>
-    <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>PV1-4 / PV1-18</t>
-  </si>
-  <si>
-    <t>Encounter.priority</t>
-  </si>
-  <si>
-    <t>Indicates the urgency of the encounter</t>
-  </si>
-  <si>
-    <t>Indicates the urgency of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-ActPriority</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>PV2-25</t>
-  </si>
-  <si>
-    <t>Encounter.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
-</t>
-  </si>
-  <si>
-    <t>The patient ro group present at the encounter</t>
-  </si>
-  <si>
-    <t>The patient ro group present at the encounter.</t>
-  </si>
-  <si>
-    <t>While the encounter is always about the patient, the patient may not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ]/role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Encounter.episodeOfCare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
-</t>
-  </si>
-  <si>
-    <t>Episode(s) of care that this encounter should be recorded against</t>
-  </si>
-  <si>
-    <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care, and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>PV1-54, PV1-53</t>
-  </si>
-  <si>
-    <t>Encounter.incomingReferral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest]]}
-</t>
-  </si>
-  <si>
-    <t>The ReferralRequest that initiated this encounter</t>
-  </si>
-  <si>
-    <t>The referral request this encounter satisfies (incoming referral).</t>
-  </si>
-  <si>
-    <t>.reason.ClinicalDocument</t>
-  </si>
-  <si>
-    <t>Encounter.participant</t>
-  </si>
-  <si>
-    <t>List of participants involved in the encounter</t>
-  </si>
-  <si>
-    <t>The list of people responsible for providing the service.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PFM]</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>Encounter.participant.id</t>
-  </si>
-  <si>
-    <t>Encounter.participant.extension</t>
-  </si>
-  <si>
-    <t>Encounter.participant.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.participant.type</t>
-  </si>
-  <si>
-    <t>Role of participant in encounter</t>
-  </si>
-  <si>
-    <t>Role of participant in encounter.</t>
-  </si>
-  <si>
-    <t>The participant type indicates how an individual partitipates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
-  </si>
-  <si>
-    <t>.functionCode</t>
-  </si>
-  <si>
-    <t>ROL-3 (or maybe PRT-4)</t>
-  </si>
-  <si>
-    <t>Encounter.participant.period</t>
-  </si>
-  <si>
-    <t>Period of time during the encounter that the participant participated</t>
-  </si>
-  <si>
-    <t>The period of time that the specified participant participated in the encounter. These can overlap or be sub-sets of the overall encounter's period.</t>
-  </si>
-  <si>
-    <t>.time</t>
-  </si>
-  <si>
-    <t>ROL-5, ROL-6 (or maybe PRT-5)</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
-</t>
-  </si>
-  <si>
-    <t>Persons involved in the encounter other than the patient</t>
-  </si>
-  <si>
-    <t>Persons involved in the encounter other than the patient.</t>
-  </si>
-  <si>
-    <t>.role</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>ROL-4</t>
-  </si>
-  <si>
-    <t>Encounter.appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Appointment]]}
-</t>
-  </si>
-  <si>
-    <t>The appointment that scheduled this encounter</t>
-  </si>
-  <si>
-    <t>The appointment that scheduled this encounter.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
-  </si>
-  <si>
-    <t>SCH-1 / SCH-2</t>
-  </si>
-  <si>
-    <t>Encounter.period</t>
-  </si>
-  <si>
-    <t>The start and end time of the encounter</t>
-  </si>
-  <si>
-    <t>The start and end time of the encounter.</t>
-  </si>
-  <si>
-    <t>If not (yet) known, the end of the Period may be omitted.</t>
-  </si>
-  <si>
-    <t>.effectiveTime (low &amp; high)</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>PV1-44, PV1-45</t>
-  </si>
-  <si>
-    <t>Encounter.length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Duration]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Quantity of time the encounter lasted (less time absent)</t>
-  </si>
-  <si>
-    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.</t>
-  </si>
-  <si>
-    <t>May differ from the time the Encounter.period lasted because of leave of absence.</t>
-  </si>
-  <si>
-    <t>.lengthOfStayQuantity</t>
-  </si>
-  <si>
-    <t>(PV1-45 less PV1-44) iff ( (PV1-44 not empty) and (PV1-45 not empty) ); units in minutes</t>
-  </si>
-  <si>
-    <t>Encounter.reason</t>
-  </si>
-  <si>
-    <t>Indication
-Admission diagnosis</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place (code)</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
-  </si>
-  <si>
-    <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Reason why the encounter takes place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis</t>
-  </si>
-  <si>
-    <t>The list of diagnosis relevant to this encounter</t>
-  </si>
-  <si>
-    <t>The list of diagnosis relevant to this encounter.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.id</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.extension</t>
   </si>
   <si>
     <t>diagnosiscode</t>
@@ -1473,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM79"/>
+  <dimension ref="A1:AM72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1505,11 +1420,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="72.9921875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.1875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1973,10 +1888,10 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>62</v>
@@ -1987,7 +1902,9 @@
       <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2036,7 +1953,7 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
@@ -2051,7 +1968,7 @@
         <v>42</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>42</v>
@@ -2066,14 +1983,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2085,16 +2002,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2120,37 +2037,37 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
@@ -2159,7 +2076,7 @@
         <v>42</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>42</v>
@@ -2170,11 +2087,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2190,19 +2107,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2251,19 +2168,23 @@
       <c r="AD7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>42</v>
@@ -2274,18 +2195,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2294,19 +2215,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2355,11 +2276,15 @@
       <c r="AD8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>42</v>
       </c>
@@ -2367,7 +2292,7 @@
         <v>42</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>42</v>
@@ -2378,11 +2303,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2398,19 +2323,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2459,11 +2384,15 @@
       <c r="AD9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE9" s="2"/>
+      <c r="AE9" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>42</v>
       </c>
@@ -2471,7 +2400,7 @@
         <v>42</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>42</v>
@@ -2482,11 +2411,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2499,22 +2428,22 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2540,13 +2469,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2563,11 +2492,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2575,7 +2508,7 @@
         <v>42</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>42</v>
@@ -2586,7 +2519,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2609,17 +2542,15 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2644,13 +2575,13 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>42</v>
@@ -2679,18 +2610,18 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2698,7 +2629,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>49</v>
@@ -2713,16 +2644,16 @@
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2748,13 +2679,13 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>42</v>
@@ -2771,15 +2702,11 @@
       <c r="AD12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2787,18 +2714,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2809,7 +2736,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>42</v>
@@ -2821,16 +2748,16 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2856,13 +2783,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2879,23 +2806,19 @@
       <c r="AD13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE13" t="s" s="2">
-        <v>118</v>
-      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>42</v>
@@ -2906,11 +2829,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2929,17 +2852,15 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -2988,7 +2909,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2997,7 +2918,7 @@
         <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
@@ -3014,11 +2935,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3037,16 +2958,16 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3096,7 +3017,7 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -3111,7 +3032,7 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>42</v>
@@ -3126,7 +3047,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3139,22 +3060,22 @@
         <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3204,7 +3125,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3219,7 +3140,7 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>42</v>
@@ -3230,40 +3151,38 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3288,13 +3207,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3311,15 +3230,11 @@
       <c r="AD17" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3327,7 +3242,7 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>42</v>
@@ -3338,7 +3253,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3346,10 +3261,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
@@ -3358,16 +3273,16 @@
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3429,18 +3344,18 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3448,7 +3363,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>49</v>
@@ -3457,23 +3372,21 @@
         <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3498,13 +3411,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3533,18 +3446,18 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3567,17 +3480,15 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3634,10 +3545,10 @@
         <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>42</v>
@@ -3648,7 +3559,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3671,13 +3582,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3728,7 +3639,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3743,7 +3654,7 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>42</v>
@@ -3754,11 +3665,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3777,16 +3688,16 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3836,7 +3747,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3851,7 +3762,7 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>42</v>
@@ -3862,11 +3773,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3885,16 +3796,16 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3944,7 +3855,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3959,7 +3870,7 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>42</v>
@@ -3970,7 +3881,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3993,13 +3904,13 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4026,13 +3937,13 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -4061,7 +3972,7 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>42</v>
@@ -4072,7 +3983,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4095,13 +4006,13 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4163,7 +4074,7 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -4174,7 +4085,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4185,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4197,15 +4108,17 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4230,13 +4143,11 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4265,18 +4176,18 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4287,7 +4198,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4299,13 +4210,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4332,13 +4243,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4364,29 +4275,29 @@
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>49</v>
@@ -4398,18 +4309,20 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4458,7 +4371,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4473,22 +4386,22 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4504,20 +4417,18 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4565,15 +4476,11 @@
       <c r="AD29" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE29" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG29" s="2"/>
       <c r="AH29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4581,22 +4488,22 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>42</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4609,23 +4516,21 @@
         <v>42</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4673,15 +4578,11 @@
       <c r="AD30" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE30" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG30" s="2"/>
       <c r="AH30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4689,7 +4590,7 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4700,7 +4601,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4708,10 +4609,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4720,16 +4621,16 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4756,13 +4657,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4788,21 +4689,21 @@
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4810,7 +4711,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>49</v>
@@ -4825,13 +4726,13 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4881,11 +4782,15 @@
       <c r="AD32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4893,7 +4798,7 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4904,11 +4809,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4924,19 +4829,19 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4962,11 +4867,13 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4983,11 +4890,15 @@
       <c r="AD33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE33" s="2"/>
+      <c r="AE33" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4995,49 +4906,51 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>201</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5062,13 +4975,13 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5085,11 +4998,15 @@
       <c r="AD34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE34" s="2"/>
+      <c r="AE34" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5097,29 +5014,29 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>208</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5131,16 +5048,16 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5166,13 +5083,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5189,15 +5106,11 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5205,18 +5118,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5227,7 +5140,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5236,16 +5149,16 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5307,18 +5220,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5329,7 +5242,7 @@
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5338,16 +5251,16 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5409,18 +5322,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5431,7 +5344,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5443,13 +5356,13 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5508,21 +5421,21 @@
         <v>42</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5545,15 +5458,17 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5601,15 +5516,11 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5617,29 +5528,29 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>42</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5651,16 +5562,16 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5709,15 +5620,11 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5725,22 +5632,22 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>42</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5753,22 +5660,22 @@
         <v>42</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>72</v>
+        <v>250</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5794,13 +5701,13 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5817,15 +5724,11 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5833,18 +5736,18 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5867,17 +5770,15 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -5902,13 +5803,13 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -5934,21 +5835,21 @@
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5971,13 +5872,13 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6027,11 +5928,15 @@
       <c r="AD43" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE43" s="2"/>
+      <c r="AE43" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" s="2"/>
+      <c r="AG43" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6039,29 +5944,29 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6070,18 +5975,20 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6118,22 +6025,24 @@
         <v>42</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE44" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6141,20 +6050,22 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6163,7 +6074,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6172,16 +6083,14 @@
         <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="K45" s="2"/>
       <c r="L45" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6231,11 +6140,15 @@
       <c r="AD45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE45" s="2"/>
+      <c r="AE45" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" s="2"/>
+      <c r="AG45" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6243,50 +6156,50 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>261</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6335,11 +6248,15 @@
       <c r="AD46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE46" s="2"/>
+      <c r="AE46" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" s="2"/>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6347,13 +6264,13 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>266</v>
+        <v>92</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>267</v>
+        <v>42</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>268</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -6362,11 +6279,11 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>49</v>
@@ -6381,16 +6298,16 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6454,7 +6371,7 @@
         <v>274</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>275</v>
@@ -6466,14 +6383,14 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6482,20 +6399,18 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6520,13 +6435,13 @@
         <v>42</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
@@ -6555,18 +6470,18 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6577,7 +6492,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
@@ -6586,16 +6501,16 @@
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6654,10 +6569,10 @@
         <v>42</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>42</v>
@@ -6668,7 +6583,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6679,7 +6594,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6691,15 +6606,17 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6747,15 +6664,11 @@
       <c r="AD50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6763,7 +6676,7 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>42</v>
@@ -6778,14 +6691,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6797,16 +6710,16 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>71</v>
+        <v>294</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>72</v>
+        <v>295</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6844,32 +6757,30 @@
         <v>42</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB51" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AE51" s="2"/>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>66</v>
+        <v>296</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>42</v>
@@ -6880,11 +6791,9 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>42</v>
       </c>
@@ -6893,7 +6802,7 @@
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6905,11 +6814,13 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K52" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="L52" t="s" s="2">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6960,13 +6871,13 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
@@ -6975,7 +6886,7 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>42</v>
@@ -6986,11 +6897,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7003,22 +6914,22 @@
         <v>42</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7068,7 +6979,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7083,7 +6994,7 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>42</v>
@@ -7094,39 +7005,39 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7175,11 +7086,15 @@
       <c r="AD54" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE54" s="2"/>
+      <c r="AE54" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG54" s="2"/>
+      <c r="AG54" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7187,18 +7102,18 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7221,13 +7136,13 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7254,13 +7169,13 @@
         <v>42</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7289,18 +7204,18 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>42</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7323,13 +7238,13 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7391,7 +7306,7 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>42</v>
@@ -7402,7 +7317,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7413,7 +7328,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7425,17 +7340,15 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7460,13 +7373,13 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7495,18 +7408,18 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7529,17 +7442,15 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7564,13 +7475,13 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7596,21 +7507,21 @@
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>42</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7621,7 +7532,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -7633,16 +7544,20 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7666,13 +7581,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7689,15 +7604,11 @@
       <c r="AD59" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE59" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="AE59" s="2"/>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG59" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG59" s="2"/>
       <c r="AH59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7705,22 +7616,22 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>66</v>
+        <v>329</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>42</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7739,17 +7650,15 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>70</v>
+        <v>332</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7774,13 +7683,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7797,15 +7706,11 @@
       <c r="AD60" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE60" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="AE60" s="2"/>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7813,22 +7718,22 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>66</v>
+        <v>336</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -7841,23 +7746,21 @@
         <v>42</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>140</v>
+        <v>339</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -7882,13 +7785,13 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -7905,15 +7808,11 @@
       <c r="AD61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE61" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="AE61" s="2"/>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7921,18 +7820,18 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>135</v>
+        <v>343</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>42</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7955,13 +7854,13 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8023,18 +7922,18 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>147</v>
+        <v>348</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8057,13 +7956,13 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8090,13 +7989,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8125,18 +8024,18 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>42</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8147,7 +8046,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
@@ -8159,15 +8058,17 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8192,13 +8093,13 @@
         <v>42</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8224,21 +8125,21 @@
         <v>42</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>343</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8261,13 +8162,13 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>345</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8294,13 +8195,13 @@
         <v>42</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8317,11 +8218,15 @@
       <c r="AD65" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE65" s="2"/>
+      <c r="AE65" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG65" s="2"/>
+      <c r="AG65" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8329,22 +8234,22 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8363,20 +8268,18 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>351</v>
+        <v>96</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>352</v>
+        <v>134</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8400,13 +8303,13 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8423,11 +8326,15 @@
       <c r="AD66" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE66" s="2"/>
+      <c r="AE66" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG66" s="2"/>
+      <c r="AG66" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8435,22 +8342,22 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>357</v>
+        <v>127</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>358</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8463,21 +8370,23 @@
         <v>42</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>360</v>
+        <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -8502,13 +8411,13 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -8525,11 +8434,15 @@
       <c r="AD67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE67" s="2"/>
+      <c r="AE67" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8537,18 +8450,18 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>364</v>
+        <v>92</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>365</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8556,10 +8469,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8571,7 +8484,7 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>196</v>
+        <v>366</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>367</v>
@@ -8604,13 +8517,13 @@
         <v>42</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>369</v>
+        <v>42</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -8639,18 +8552,18 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8673,15 +8586,17 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>333</v>
+        <v>68</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8706,13 +8621,13 @@
         <v>42</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>42</v>
@@ -8741,13 +8656,13 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>377</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -8775,7 +8690,7 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>379</v>
@@ -8808,13 +8723,13 @@
         <v>42</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>382</v>
+        <v>42</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -8843,18 +8758,18 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>384</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8865,7 +8780,7 @@
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
@@ -8877,17 +8792,15 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>161</v>
+        <v>382</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -8944,21 +8857,21 @@
         <v>42</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>42</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8981,15 +8894,17 @@
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>62</v>
+        <v>388</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>63</v>
+        <v>389</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9037,15 +8952,11 @@
       <c r="AD72" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE72" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="AE72" s="2"/>
       <c r="AF72" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG72" s="2"/>
       <c r="AH72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9053,747 +8964,17 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>66</v>
+        <v>392</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE77" s="2"/>
-      <c r="AF77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG77" s="2"/>
-      <c r="AH77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE78" s="2"/>
-      <c r="AF78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG78" s="2"/>
-      <c r="AH78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE79" s="2"/>
-      <c r="AF79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG79" s="2"/>
-      <c r="AH79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL79" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL79">
+  <autoFilter ref="A1:AL72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9803,7 +8984,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-Encounter.xlsx
+++ b/docs/odh/shr-core-Encounter.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="427">
   <si>
     <t>Path</t>
   </si>
@@ -204,13 +204,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Encounter.implicitRules</t>
+    <t>Encounter.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Encounter.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Encounter.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Encounter.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Encounter.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Encounter.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -240,9 +389,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -311,24 +457,20 @@
     <t>Encounter.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>encounterreasonreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EncounterReasonReference-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
+    <t>Reason the encounter is taking place.</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -416,32 +558,10 @@
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Encounter.statusHistory.modifierExtension</t>
@@ -476,10 +596,6 @@
     <t>Encounter.class</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>inpatient | outpatient | ambulatory | emergency +</t>
   </si>
   <si>
@@ -563,9 +679,6 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/v3-ActPriority</t>
   </si>
   <si>
@@ -585,7 +698,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -610,7 +723,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EpisodeOfCare]]}
 </t>
   </si>
   <si>
@@ -629,7 +742,7 @@
     <t>Encounter.incomingReferral</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest]]}
 </t>
   </si>
   <si>
@@ -705,7 +818,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson]]}
 </t>
   </si>
   <si>
@@ -727,7 +840,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Appointment]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Appointment]]}
 </t>
   </si>
   <si>
@@ -767,7 +880,7 @@
     <t>Encounter.length</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Duration]]} {[]}
+    <t xml:space="preserve">Duration {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Duration]]} {[]}
 </t>
   </si>
   <si>
@@ -838,17 +951,10 @@
     <t>Encounter.diagnosis.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>diagnosiscode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DiagnosisCode-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DiagnosisCode-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -865,7 +971,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition]]}
 </t>
   </si>
   <si>
@@ -1156,7 +1262,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location]]}
 </t>
   </si>
   <si>
@@ -1205,7 +1311,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -1224,7 +1330,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -1388,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM72"/>
+  <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1398,7 +1504,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1420,11 +1526,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="72.9921875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.1875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1888,10 +1994,10 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>62</v>
@@ -1902,9 +2008,7 @@
       <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1953,7 +2057,7 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
@@ -1968,7 +2072,7 @@
         <v>42</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>42</v>
@@ -1983,14 +2087,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2002,16 +2106,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2037,37 +2141,37 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
@@ -2076,7 +2180,7 @@
         <v>42</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>42</v>
@@ -2087,11 +2191,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2112,15 +2218,11 @@
       <c r="J7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>42</v>
@@ -2169,22 +2271,22 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>42</v>
@@ -2195,18 +2297,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2215,19 +2317,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2276,15 +2378,11 @@
       <c r="AD8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>42</v>
       </c>
@@ -2292,7 +2390,7 @@
         <v>42</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>42</v>
@@ -2303,18 +2401,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>42</v>
@@ -2323,19 +2421,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2384,15 +2482,11 @@
       <c r="AD9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE9" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>42</v>
       </c>
@@ -2400,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>42</v>
@@ -2411,11 +2505,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2428,22 +2522,22 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2492,15 +2586,11 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2508,7 +2598,7 @@
         <v>42</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>42</v>
@@ -2519,7 +2609,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2542,15 +2632,17 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2575,13 +2667,13 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>42</v>
@@ -2610,18 +2702,18 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2629,31 +2721,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2679,13 +2771,13 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>42</v>
@@ -2714,18 +2806,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2736,28 +2828,28 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2806,19 +2898,23 @@
       <c r="AD13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>42</v>
@@ -2829,7 +2925,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2852,15 +2948,17 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -2885,13 +2983,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2909,7 +3007,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2924,7 +3022,7 @@
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>42</v>
@@ -2935,18 +3033,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -2958,16 +3056,16 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3017,22 +3115,22 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>42</v>
@@ -3043,11 +3141,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3060,22 +3158,22 @@
         <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3125,7 +3223,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3140,7 +3238,7 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>42</v>
@@ -3151,18 +3249,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -3174,15 +3272,17 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3207,34 +3307,36 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE17" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" s="2"/>
+      <c r="AG17" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3242,7 +3344,7 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>42</v>
@@ -3253,18 +3355,20 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
@@ -3276,11 +3380,9 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K18" t="s" s="2">
         <v>143</v>
       </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
         <v>144</v>
       </c>
@@ -3332,11 +3434,15 @@
       <c r="AD18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE18" s="2"/>
+      <c r="AE18" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3344,7 +3450,7 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>42</v>
@@ -3359,34 +3465,36 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3411,13 +3519,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3434,11 +3542,15 @@
       <c r="AD19" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3446,18 +3558,18 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3477,16 +3589,16 @@
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3545,21 +3657,21 @@
         <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>42</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3567,7 +3679,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>49</v>
@@ -3576,21 +3688,23 @@
         <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3615,13 +3729,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3638,15 +3752,11 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3654,22 +3764,22 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3688,16 +3798,16 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3746,23 +3856,19 @@
       <c r="AD22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>42</v>
@@ -3773,40 +3879,38 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3855,13 +3959,13 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
@@ -3870,7 +3974,7 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>42</v>
@@ -3881,18 +3985,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -3904,15 +4008,17 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3937,13 +4043,13 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -3960,11 +4066,15 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3972,7 +4082,7 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>42</v>
@@ -3983,38 +4093,40 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4062,11 +4174,15 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4074,7 +4190,7 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -4085,7 +4201,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4093,10 +4209,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4105,20 +4221,18 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4143,11 +4257,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4176,18 +4292,18 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4195,7 +4311,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>49</v>
@@ -4210,13 +4326,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4243,13 +4359,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4278,22 +4394,22 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4312,17 +4428,15 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4347,13 +4461,13 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4371,7 +4485,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4386,18 +4500,18 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4417,16 +4531,16 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4485,16 +4599,16 @@
         <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -4510,7 +4624,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4522,13 +4636,13 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4578,11 +4692,15 @@
       <c r="AD30" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE30" s="2"/>
+      <c r="AE30" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG30" s="2"/>
+      <c r="AG30" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4590,7 +4708,7 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4601,11 +4719,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4621,18 +4739,20 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4680,61 +4800,67 @@
       <c r="AD31" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE31" s="2"/>
+      <c r="AE31" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG31" s="2"/>
+      <c r="AG31" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4783,13 +4909,13 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
@@ -4798,7 +4924,7 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4809,18 +4935,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -4835,14 +4961,12 @@
         <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4867,13 +4991,13 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4890,15 +5014,11 @@
       <c r="AD33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE33" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4906,7 +5026,7 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
@@ -4917,40 +5037,38 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4998,15 +5116,11 @@
       <c r="AD34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE34" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5014,7 +5128,7 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>42</v>
@@ -5025,7 +5139,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5048,16 +5162,16 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5083,13 +5197,11 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5118,18 +5230,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5152,13 +5264,13 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5185,13 +5297,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5220,26 +5332,26 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>49</v>
@@ -5254,15 +5366,17 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5310,11 +5424,15 @@
       <c r="AD37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE37" s="2"/>
+      <c r="AE37" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" s="2"/>
+      <c r="AG37" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5322,18 +5440,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5344,7 +5462,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5356,13 +5474,13 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5424,18 +5542,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5446,7 +5564,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5458,17 +5576,15 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5528,18 +5644,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5550,7 +5666,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5559,20 +5675,18 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5629,32 +5743,32 @@
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5663,20 +5777,18 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5701,13 +5813,13 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5724,11 +5836,15 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5736,22 +5852,22 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>256</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5767,18 +5883,20 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -5826,19 +5944,23 @@
       <c r="AD42" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>42</v>
@@ -5849,38 +5971,40 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -5929,13 +6053,13 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
@@ -5944,7 +6068,7 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>42</v>
@@ -5955,11 +6079,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5975,19 +6099,19 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6013,36 +6137,34 @@
         <v>42</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6050,22 +6172,20 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6074,7 +6194,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6086,11 +6206,13 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="L45" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6140,15 +6262,11 @@
       <c r="AD45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6156,51 +6274,49 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6248,15 +6364,11 @@
       <c r="AD46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6264,26 +6376,26 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>49</v>
@@ -6295,20 +6407,18 @@
         <v>42</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6368,18 +6478,18 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6402,15 +6512,17 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6435,13 +6547,13 @@
         <v>42</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
@@ -6470,18 +6582,18 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6504,15 +6616,17 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6572,22 +6686,22 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>42</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6603,19 +6717,19 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6641,13 +6755,13 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -6676,18 +6790,18 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK50" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AL50" t="s" s="2">
-        <v>42</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6698,7 +6812,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6707,20 +6821,18 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M51" t="s" s="2">
         <v>295</v>
       </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6777,7 +6889,7 @@
         <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>296</v>
@@ -6814,13 +6926,13 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6871,7 +6983,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6886,7 +6998,7 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>42</v>
@@ -6901,7 +7013,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -6920,16 +7032,16 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6967,19 +7079,17 @@
         <v>42</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -6994,7 +7104,7 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>42</v>
@@ -7005,11 +7115,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7022,23 +7134,19 @@
         <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K54" s="2"/>
       <c r="L54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7087,7 +7195,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7102,7 +7210,7 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>42</v>
@@ -7113,38 +7221,40 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7192,11 +7302,15 @@
       <c r="AD55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7204,26 +7318,26 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>49</v>
@@ -7246,7 +7360,9 @@
       <c r="L56" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M56" s="2"/>
+      <c r="M56" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7309,15 +7425,15 @@
         <v>308</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>42</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7340,13 +7456,13 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7373,13 +7489,13 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7408,18 +7524,18 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7442,7 +7558,7 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>317</v>
@@ -7475,13 +7591,13 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7510,18 +7626,18 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>127</v>
+        <v>319</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7544,20 +7660,18 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7581,13 +7695,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>328</v>
+        <v>42</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7616,18 +7730,18 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7638,7 +7752,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
@@ -7650,15 +7764,17 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7683,13 +7799,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>334</v>
+        <v>42</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>335</v>
+        <v>42</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7715,21 +7831,21 @@
         <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>337</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7740,7 +7856,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -7752,13 +7868,13 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>339</v>
+        <v>63</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>340</v>
+        <v>64</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7785,13 +7901,13 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -7808,11 +7924,15 @@
       <c r="AD61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE61" s="2"/>
+      <c r="AE61" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" s="2"/>
+      <c r="AG61" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7820,29 +7940,29 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>343</v>
+        <v>66</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>344</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -7854,15 +7974,17 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -7910,11 +8032,15 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" s="2"/>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" s="2"/>
+      <c r="AG62" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH62" t="s" s="2">
         <v>42</v>
       </c>
@@ -7922,49 +8048,51 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>348</v>
+        <v>66</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -7989,13 +8117,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8012,11 +8140,15 @@
       <c r="AD63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE63" s="2"/>
+      <c r="AE63" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG63" s="2"/>
+      <c r="AG63" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8024,18 +8156,18 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>355</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>356</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8046,7 +8178,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
@@ -8058,17 +8190,15 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8125,21 +8255,21 @@
         <v>42</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>361</v>
+        <v>153</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8162,13 +8292,13 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8218,15 +8348,11 @@
       <c r="AD65" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE65" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="AE65" s="2"/>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG65" s="2"/>
       <c r="AH65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8234,7 +8360,7 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>127</v>
+        <v>342</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>42</v>
@@ -8245,18 +8371,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -8268,17 +8394,15 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -8303,13 +8427,13 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8326,15 +8450,11 @@
       <c r="AD66" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE66" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="AE66" s="2"/>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG66" s="2"/>
       <c r="AH66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8342,51 +8462,49 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>127</v>
+        <v>348</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -8411,13 +8529,13 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -8434,15 +8552,11 @@
       <c r="AD67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE67" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="AE67" s="2"/>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG67" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8450,18 +8564,18 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8469,10 +8583,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8484,16 +8598,20 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8517,13 +8635,13 @@
         <v>42</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -8552,18 +8670,18 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>223</v>
+        <v>363</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>369</v>
+        <v>42</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8574,7 +8692,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8586,17 +8704,15 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8621,13 +8737,13 @@
         <v>42</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>115</v>
+        <v>287</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>42</v>
@@ -8656,18 +8772,18 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>42</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8678,7 +8794,7 @@
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
@@ -8690,13 +8806,13 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8723,13 +8839,13 @@
         <v>42</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -8758,18 +8874,18 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>217</v>
+        <v>377</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>42</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8792,13 +8908,13 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8860,18 +8976,18 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8894,17 +9010,15 @@
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>388</v>
+        <v>202</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -8929,13 +9043,13 @@
         <v>42</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>42</v>
+        <v>387</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>42</v>
@@ -8964,17 +9078,957 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AK72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL72" t="s" s="2">
+      <c r="L73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE73" s="2"/>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" s="2"/>
+      <c r="AH73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE78" s="2"/>
+      <c r="AF78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE79" s="2"/>
+      <c r="AF79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE80" s="2"/>
+      <c r="AF80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG80" s="2"/>
+      <c r="AH80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE81" s="2"/>
+      <c r="AF81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG81" s="2"/>
+      <c r="AH81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL72">
+  <autoFilter ref="A1:AL81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8984,7 +10038,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
